--- a/双色球.xlsx
+++ b/双色球.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8267950D-D7FE-4DAB-8C21-05EDD33D032E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D34293A-9254-4455-88C8-86374ED82703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14790" yWindow="2025" windowWidth="24405" windowHeight="17325" xr2:uid="{3BA54326-B28B-4F24-8AF0-D9E4BAE278C5}"/>
+    <workbookView xWindow="13980" yWindow="1245" windowWidth="28800" windowHeight="15345" xr2:uid="{3BA54326-B28B-4F24-8AF0-D9E4BAE278C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1069,7 +1069,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1150,13 +1150,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1180,47 +1180,47 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_1_1" connectionId="1" xr16:uid="{67E07043-E4D5-4727-998B-FB231D3C63CA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_20_1" connectionId="12" xr16:uid="{9F041A5F-FD8D-4475-B0C9-1C4084B4F867}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_23_1" connectionId="16" xr16:uid="{BF7D7121-3ACC-45BE-9495-72FB4916FB0F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_27_1" connectionId="20" xr16:uid="{6D970A84-5F46-4F93-AC10-43D2DC4A7EA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_13_1" connectionId="5" xr16:uid="{DBACD630-8A17-403E-97D1-BA6DA8DC7285}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_12_1" connectionId="4" xr16:uid="{01273956-4887-471E-BB2E-30B888C8FDF3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_5_1" connectionId="23" xr16:uid="{492616F4-99BC-435A-A3FA-C777A40E19AA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_8_1" connectionId="26" xr16:uid="{25B9B3AD-9F51-49A7-BB24-4E8F0BB43E00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_21_1" connectionId="14" xr16:uid="{C7F59135-D7B0-4AC5-8286-DA81DAD579EB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_18_1" connectionId="10" xr16:uid="{D73D9D2F-651D-4C30-81AF-9383C2C48CCA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_15_1" connectionId="7" xr16:uid="{F659E4CF-C6A5-4EF6-8D53-E6B5E9ECCD3A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_2_1" connectionId="2" xr16:uid="{C25A976D-4714-46E1-9F3C-CEF1C8AA4C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_19_1" connectionId="11" xr16:uid="{7FDD5CA0-1D40-40E0-BA9B-D83064314396}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_3_1" connectionId="13" xr16:uid="{C7167BCF-C600-4F44-A73B-4A1E83F0BBE7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_24_1" connectionId="17" xr16:uid="{D88CB69D-6CBD-457D-BE12-FEF3680D00EC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_4_1" connectionId="22" xr16:uid="{8A359B9C-4901-4EC1-B44D-544BC566DD5E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_9_1" connectionId="27" xr16:uid="{8B548B74-D3A8-44CF-B906-496637E50EF2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_8_1" connectionId="26" xr16:uid="{25B9B3AD-9F51-49A7-BB24-4E8F0BB43E00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_16_1" connectionId="8" xr16:uid="{4B9EA734-160F-4FE2-B8E3-E1B727A19965}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_7_1" connectionId="25" xr16:uid="{87FEEE84-3370-44CE-A661-467E42D96772}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_23_1" connectionId="16" xr16:uid="{BF7D7121-3ACC-45BE-9495-72FB4916FB0F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1228,67 +1228,67 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_20_1" connectionId="12" xr16:uid="{9F041A5F-FD8D-4475-B0C9-1C4084B4F867}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_11_1" connectionId="3" xr16:uid="{187ECEF7-13EB-4990-B504-8B40B052B315}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_17_1" connectionId="9" xr16:uid="{14C0F9B8-5DBA-4C82-ACDE-03B5C0131E8C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_7_1" connectionId="25" xr16:uid="{87FEEE84-3370-44CE-A661-467E42D96772}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_3_1" connectionId="13" xr16:uid="{C7167BCF-C600-4F44-A73B-4A1E83F0BBE7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_1_1" connectionId="1" xr16:uid="{67E07043-E4D5-4727-998B-FB231D3C63CA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_6_1" connectionId="24" xr16:uid="{DB74D516-9BFA-427F-B5F3-DDF8F110E4E7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_24_1" connectionId="17" xr16:uid="{D88CB69D-6CBD-457D-BE12-FEF3680D00EC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_13_1" connectionId="5" xr16:uid="{DBACD630-8A17-403E-97D1-BA6DA8DC7285}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_10_1" connectionId="28" xr16:uid="{2258DC98-F884-44B1-8D06-EFF52122C8F6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_25_1" connectionId="18" xr16:uid="{42200227-4753-455F-B2E6-535C8E09DE80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_4_1" connectionId="22" xr16:uid="{8A359B9C-4901-4EC1-B44D-544BC566DD5E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_5_1" connectionId="23" xr16:uid="{492616F4-99BC-435A-A3FA-C777A40E19AA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_28_1" connectionId="21" xr16:uid="{490BCE62-5253-478B-9A18-1799672C474B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_22_1" connectionId="15" xr16:uid="{F4251F43-86F7-4A66-A6BF-C8BAC7402CCA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_26_1" connectionId="19" xr16:uid="{EF1920F8-FDD3-426D-BF31-7DB19B02838F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_2_1" connectionId="2" xr16:uid="{C25A976D-4714-46E1-9F3C-CEF1C8AA4C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_16_1" connectionId="8" xr16:uid="{4B9EA734-160F-4FE2-B8E3-E1B727A19965}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_6_1" connectionId="24" xr16:uid="{DB74D516-9BFA-427F-B5F3-DDF8F110E4E7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_25_1" connectionId="18" xr16:uid="{42200227-4753-455F-B2E6-535C8E09DE80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_22_1" connectionId="15" xr16:uid="{F4251F43-86F7-4A66-A6BF-C8BAC7402CCA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_15_1" connectionId="7" xr16:uid="{F659E4CF-C6A5-4EF6-8D53-E6B5E9ECCD3A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_17_1" connectionId="9" xr16:uid="{14C0F9B8-5DBA-4C82-ACDE-03B5C0131E8C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_12_1" connectionId="4" xr16:uid="{01273956-4887-471E-BB2E-30B888C8FDF3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_9_1" connectionId="27" xr16:uid="{8B548B74-D3A8-44CF-B906-496637E50EF2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_11_1" connectionId="3" xr16:uid="{187ECEF7-13EB-4990-B504-8B40B052B315}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_10_1" connectionId="28" xr16:uid="{2258DC98-F884-44B1-8D06-EFF52122C8F6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_28_1" connectionId="21" xr16:uid="{490BCE62-5253-478B-9A18-1799672C474B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_27_1" connectionId="20" xr16:uid="{6D970A84-5F46-4F93-AC10-43D2DC4A7EA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_18_1" connectionId="10" xr16:uid="{D73D9D2F-651D-4C30-81AF-9383C2C48CCA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_21_1" connectionId="14" xr16:uid="{C7F59135-D7B0-4AC5-8286-DA81DAD579EB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1588,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2F52-98FC-4075-B750-B6E04B327DEC}">
-  <dimension ref="A1:G3272"/>
+  <dimension ref="A1:G3279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3272"/>
+    <sheetView tabSelected="1" topLeftCell="A3250" workbookViewId="0">
+      <selection activeCell="G3279" sqref="G3279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.21875" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -76858,6 +76858,167 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3273" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3273" s="4">
+        <v>19</v>
+      </c>
+      <c r="B3273" s="4">
+        <v>9</v>
+      </c>
+      <c r="C3273" s="4">
+        <v>14</v>
+      </c>
+      <c r="D3273" s="4">
+        <v>12</v>
+      </c>
+      <c r="E3273" s="4">
+        <v>32</v>
+      </c>
+      <c r="F3273" s="4">
+        <v>10</v>
+      </c>
+      <c r="G3273" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3274" s="4">
+        <v>16</v>
+      </c>
+      <c r="B3274" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3274" s="4">
+        <v>23</v>
+      </c>
+      <c r="D3274" s="4">
+        <v>5</v>
+      </c>
+      <c r="E3274" s="4">
+        <v>7</v>
+      </c>
+      <c r="F3274" s="4">
+        <v>15</v>
+      </c>
+      <c r="G3274" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3275" s="4">
+        <v>18</v>
+      </c>
+      <c r="B3275" s="4">
+        <v>15</v>
+      </c>
+      <c r="C3275" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3275" s="4">
+        <v>14</v>
+      </c>
+      <c r="E3275" s="4">
+        <v>9</v>
+      </c>
+      <c r="F3275" s="4">
+        <v>25</v>
+      </c>
+      <c r="G3275" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3276" s="4">
+        <v>15</v>
+      </c>
+      <c r="B3276" s="4">
+        <v>30</v>
+      </c>
+      <c r="C3276" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3276" s="4">
+        <v>33</v>
+      </c>
+      <c r="E3276" s="4">
+        <v>25</v>
+      </c>
+      <c r="F3276" s="4">
+        <v>16</v>
+      </c>
+      <c r="G3276" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3277" s="4">
+        <v>6</v>
+      </c>
+      <c r="B3277" s="4">
+        <v>7</v>
+      </c>
+      <c r="C3277" s="4">
+        <v>30</v>
+      </c>
+      <c r="D3277" s="4">
+        <v>31</v>
+      </c>
+      <c r="E3277" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3277" s="4">
+        <v>33</v>
+      </c>
+      <c r="G3277" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3278" s="4">
+        <v>23</v>
+      </c>
+      <c r="B3278" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3278" s="4">
+        <v>6</v>
+      </c>
+      <c r="D3278" s="4">
+        <v>5</v>
+      </c>
+      <c r="E3278" s="4">
+        <v>28</v>
+      </c>
+      <c r="F3278" s="4">
+        <v>8</v>
+      </c>
+      <c r="G3278" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3279" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3279" s="4">
+        <v>21</v>
+      </c>
+      <c r="C3279" s="4">
+        <v>14</v>
+      </c>
+      <c r="D3279" s="4">
+        <v>16</v>
+      </c>
+      <c r="E3279" s="4">
+        <v>10</v>
+      </c>
+      <c r="F3279" s="4">
+        <v>8</v>
+      </c>
+      <c r="G3279" s="4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/双色球.xlsx
+++ b/双色球.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D34293A-9254-4455-88C8-86374ED82703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F74C23C-DA14-4B5D-86CE-7592D14088A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="1245" windowWidth="28800" windowHeight="15345" xr2:uid="{3BA54326-B28B-4F24-8AF0-D9E4BAE278C5}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{3BA54326-B28B-4F24-8AF0-D9E4BAE278C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1159,7 +1159,9 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1180,99 +1182,99 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_21_1" connectionId="14" xr16:uid="{C7F59135-D7B0-4AC5-8286-DA81DAD579EB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_11_1" connectionId="3" xr16:uid="{187ECEF7-13EB-4990-B504-8B40B052B315}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_20_1" connectionId="12" xr16:uid="{9F041A5F-FD8D-4475-B0C9-1C4084B4F867}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_27_1" connectionId="20" xr16:uid="{6D970A84-5F46-4F93-AC10-43D2DC4A7EA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_25_1" connectionId="18" xr16:uid="{42200227-4753-455F-B2E6-535C8E09DE80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_14_1" connectionId="6" xr16:uid="{A5146A25-E900-4495-87E6-2C0396AC6E9B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_5_1" connectionId="23" xr16:uid="{492616F4-99BC-435A-A3FA-C777A40E19AA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_7_1" connectionId="25" xr16:uid="{87FEEE84-3370-44CE-A661-467E42D96772}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_24_1" connectionId="17" xr16:uid="{D88CB69D-6CBD-457D-BE12-FEF3680D00EC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_1_1" connectionId="1" xr16:uid="{67E07043-E4D5-4727-998B-FB231D3C63CA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_15_1" connectionId="7" xr16:uid="{F659E4CF-C6A5-4EF6-8D53-E6B5E9ECCD3A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_6_1" connectionId="24" xr16:uid="{DB74D516-9BFA-427F-B5F3-DDF8F110E4E7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_2_1" connectionId="2" xr16:uid="{C25A976D-4714-46E1-9F3C-CEF1C8AA4C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_19_1" connectionId="11" xr16:uid="{7FDD5CA0-1D40-40E0-BA9B-D83064314396}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_10_1" connectionId="28" xr16:uid="{2258DC98-F884-44B1-8D06-EFF52122C8F6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_16_1" connectionId="8" xr16:uid="{4B9EA734-160F-4FE2-B8E3-E1B727A19965}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_17_1" connectionId="9" xr16:uid="{14C0F9B8-5DBA-4C82-ACDE-03B5C0131E8C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_23_1" connectionId="16" xr16:uid="{BF7D7121-3ACC-45BE-9495-72FB4916FB0F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_4_1" connectionId="22" xr16:uid="{8A359B9C-4901-4EC1-B44D-544BC566DD5E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_18_1" connectionId="10" xr16:uid="{D73D9D2F-651D-4C30-81AF-9383C2C48CCA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_9_1" connectionId="27" xr16:uid="{8B548B74-D3A8-44CF-B906-496637E50EF2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_12_1" connectionId="4" xr16:uid="{01273956-4887-471E-BB2E-30B888C8FDF3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_8_1" connectionId="26" xr16:uid="{25B9B3AD-9F51-49A7-BB24-4E8F0BB43E00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_18_1" connectionId="10" xr16:uid="{D73D9D2F-651D-4C30-81AF-9383C2C48CCA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_15_1" connectionId="7" xr16:uid="{F659E4CF-C6A5-4EF6-8D53-E6B5E9ECCD3A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_2_1" connectionId="2" xr16:uid="{C25A976D-4714-46E1-9F3C-CEF1C8AA4C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_19_1" connectionId="11" xr16:uid="{7FDD5CA0-1D40-40E0-BA9B-D83064314396}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_9_1" connectionId="27" xr16:uid="{8B548B74-D3A8-44CF-B906-496637E50EF2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_16_1" connectionId="8" xr16:uid="{4B9EA734-160F-4FE2-B8E3-E1B727A19965}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_23_1" connectionId="16" xr16:uid="{BF7D7121-3ACC-45BE-9495-72FB4916FB0F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_14_1" connectionId="6" xr16:uid="{A5146A25-E900-4495-87E6-2C0396AC6E9B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_11_1" connectionId="3" xr16:uid="{187ECEF7-13EB-4990-B504-8B40B052B315}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_17_1" connectionId="9" xr16:uid="{14C0F9B8-5DBA-4C82-ACDE-03B5C0131E8C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_7_1" connectionId="25" xr16:uid="{87FEEE84-3370-44CE-A661-467E42D96772}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_3_1" connectionId="13" xr16:uid="{C7167BCF-C600-4F44-A73B-4A1E83F0BBE7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_1_1" connectionId="1" xr16:uid="{67E07043-E4D5-4727-998B-FB231D3C63CA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_6_1" connectionId="24" xr16:uid="{DB74D516-9BFA-427F-B5F3-DDF8F110E4E7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_24_1" connectionId="17" xr16:uid="{D88CB69D-6CBD-457D-BE12-FEF3680D00EC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_13_1" connectionId="5" xr16:uid="{DBACD630-8A17-403E-97D1-BA6DA8DC7285}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_10_1" connectionId="28" xr16:uid="{2258DC98-F884-44B1-8D06-EFF52122C8F6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_25_1" connectionId="18" xr16:uid="{42200227-4753-455F-B2E6-535C8E09DE80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_4_1" connectionId="22" xr16:uid="{8A359B9C-4901-4EC1-B44D-544BC566DD5E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_26_1" connectionId="19" xr16:uid="{EF1920F8-FDD3-426D-BF31-7DB19B02838F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_5_1" connectionId="23" xr16:uid="{492616F4-99BC-435A-A3FA-C777A40E19AA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_8_1" connectionId="26" xr16:uid="{25B9B3AD-9F51-49A7-BB24-4E8F0BB43E00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1280,15 +1282,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_22_1" connectionId="15" xr16:uid="{F4251F43-86F7-4A66-A6BF-C8BAC7402CCA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_27_1" connectionId="20" xr16:uid="{6D970A84-5F46-4F93-AC10-43D2DC4A7EA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_26_1" connectionId="19" xr16:uid="{EF1920F8-FDD3-426D-BF31-7DB19B02838F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_13_1" connectionId="5" xr16:uid="{DBACD630-8A17-403E-97D1-BA6DA8DC7285}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_21_1" connectionId="14" xr16:uid="{C7F59135-D7B0-4AC5-8286-DA81DAD579EB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_22_1" connectionId="15" xr16:uid="{F4251F43-86F7-4A66-A6BF-C8BAC7402CCA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1588,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2F52-98FC-4075-B750-B6E04B327DEC}">
-  <dimension ref="A1:G3279"/>
+  <dimension ref="A1:M3282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3250" workbookViewId="0">
-      <selection activeCell="G3279" sqref="G3279"/>
+    <sheetView tabSelected="1" topLeftCell="A3237" workbookViewId="0">
+      <selection activeCell="I3251" sqref="I3251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.21875" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -76674,7 +76676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3265" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3265" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3265" s="4">
         <v>21</v>
       </c>
@@ -76697,7 +76699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3266" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3266" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3266" s="4">
         <v>18</v>
       </c>
@@ -76720,7 +76722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3267" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3267" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3267" s="4">
         <v>11</v>
       </c>
@@ -76743,7 +76745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3268" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3268" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3268" s="4">
         <v>32</v>
       </c>
@@ -76766,7 +76768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3269" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3269" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3269" s="4">
         <v>28</v>
       </c>
@@ -76789,7 +76791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3270" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3270" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3270" s="4">
         <v>33</v>
       </c>
@@ -76812,7 +76814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3271" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3271" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3271" s="4">
         <v>22</v>
       </c>
@@ -76835,7 +76837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3272" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3272" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3272" s="4">
         <v>30</v>
       </c>
@@ -76858,7 +76860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3273" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3273" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3273" s="4">
         <v>19</v>
       </c>
@@ -76881,7 +76883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3274" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3274" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3274" s="4">
         <v>16</v>
       </c>
@@ -76904,7 +76906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3275" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3275" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3275" s="4">
         <v>18</v>
       </c>
@@ -76927,7 +76929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3276" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3276" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3276" s="4">
         <v>15</v>
       </c>
@@ -76950,7 +76952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3277" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3277" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3277" s="4">
         <v>6</v>
       </c>
@@ -76973,7 +76975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3278" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3278" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3278" s="4">
         <v>23</v>
       </c>
@@ -76996,7 +76998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3279" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3279" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3279" s="4">
         <v>3</v>
       </c>
@@ -77017,6 +77019,81 @@
       </c>
       <c r="G3279" s="4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3280" s="4">
+        <v>33</v>
+      </c>
+      <c r="B3280" s="4">
+        <v>25</v>
+      </c>
+      <c r="C3280" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3280" s="4">
+        <v>18</v>
+      </c>
+      <c r="E3280" s="4">
+        <v>26</v>
+      </c>
+      <c r="F3280" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3280" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3280" s="4"/>
+      <c r="I3280" s="4"/>
+      <c r="J3280" s="4"/>
+      <c r="K3280" s="4"/>
+      <c r="L3280" s="4"/>
+      <c r="M3280" s="4"/>
+    </row>
+    <row r="3281" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3281" s="4">
+        <v>26</v>
+      </c>
+      <c r="B3281" s="4">
+        <v>24</v>
+      </c>
+      <c r="C3281" s="4">
+        <v>13</v>
+      </c>
+      <c r="D3281" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3281" s="4">
+        <v>14</v>
+      </c>
+      <c r="F3281" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3281" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3282" s="4">
+        <v>16</v>
+      </c>
+      <c r="B3282" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3282" s="4">
+        <v>25</v>
+      </c>
+      <c r="D3282" s="4">
+        <v>18</v>
+      </c>
+      <c r="E3282" s="4">
+        <v>31</v>
+      </c>
+      <c r="F3282" s="4">
+        <v>8</v>
+      </c>
+      <c r="G3282" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/双色球.xlsx
+++ b/双色球.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F74C23C-DA14-4B5D-86CE-7592D14088A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44BBE22-C2E9-4E04-B5DF-3740B0D2CAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{3BA54326-B28B-4F24-8AF0-D9E4BAE278C5}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="33975" windowHeight="15345" xr2:uid="{3BA54326-B28B-4F24-8AF0-D9E4BAE278C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1182,15 +1182,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_21_1" connectionId="14" xr16:uid="{C7F59135-D7B0-4AC5-8286-DA81DAD579EB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_6_1" connectionId="24" xr16:uid="{DB74D516-9BFA-427F-B5F3-DDF8F110E4E7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_11_1" connectionId="3" xr16:uid="{187ECEF7-13EB-4990-B504-8B40B052B315}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_4_1" connectionId="22" xr16:uid="{8A359B9C-4901-4EC1-B44D-544BC566DD5E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_20_1" connectionId="12" xr16:uid="{9F041A5F-FD8D-4475-B0C9-1C4084B4F867}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_1_1" connectionId="1" xr16:uid="{67E07043-E4D5-4727-998B-FB231D3C63CA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1198,43 +1198,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_27_1" connectionId="20" xr16:uid="{6D970A84-5F46-4F93-AC10-43D2DC4A7EA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_18_1" connectionId="10" xr16:uid="{D73D9D2F-651D-4C30-81AF-9383C2C48CCA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_10_1" connectionId="28" xr16:uid="{2258DC98-F884-44B1-8D06-EFF52122C8F6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_14_1" connectionId="6" xr16:uid="{A5146A25-E900-4495-87E6-2C0396AC6E9B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_5_1" connectionId="23" xr16:uid="{492616F4-99BC-435A-A3FA-C777A40E19AA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_13_1" connectionId="5" xr16:uid="{DBACD630-8A17-403E-97D1-BA6DA8DC7285}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_3_1" connectionId="13" xr16:uid="{C7167BCF-C600-4F44-A73B-4A1E83F0BBE7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_15_1" connectionId="7" xr16:uid="{F659E4CF-C6A5-4EF6-8D53-E6B5E9ECCD3A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_7_1" connectionId="25" xr16:uid="{87FEEE84-3370-44CE-A661-467E42D96772}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_24_1" connectionId="17" xr16:uid="{D88CB69D-6CBD-457D-BE12-FEF3680D00EC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_1_1" connectionId="1" xr16:uid="{67E07043-E4D5-4727-998B-FB231D3C63CA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_15_1" connectionId="7" xr16:uid="{F659E4CF-C6A5-4EF6-8D53-E6B5E9ECCD3A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_6_1" connectionId="24" xr16:uid="{DB74D516-9BFA-427F-B5F3-DDF8F110E4E7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_2_1" connectionId="2" xr16:uid="{C25A976D-4714-46E1-9F3C-CEF1C8AA4C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_19_1" connectionId="11" xr16:uid="{7FDD5CA0-1D40-40E0-BA9B-D83064314396}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_22_1" connectionId="15" xr16:uid="{F4251F43-86F7-4A66-A6BF-C8BAC7402CCA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_10_1" connectionId="28" xr16:uid="{2258DC98-F884-44B1-8D06-EFF52122C8F6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_9_1" connectionId="27" xr16:uid="{8B548B74-D3A8-44CF-B906-496637E50EF2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1242,23 +1242,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_5_1" connectionId="23" xr16:uid="{492616F4-99BC-435A-A3FA-C777A40E19AA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_26_1" connectionId="19" xr16:uid="{EF1920F8-FDD3-426D-BF31-7DB19B02838F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_17_1" connectionId="9" xr16:uid="{14C0F9B8-5DBA-4C82-ACDE-03B5C0131E8C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_23_1" connectionId="16" xr16:uid="{BF7D7121-3ACC-45BE-9495-72FB4916FB0F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_4_1" connectionId="22" xr16:uid="{8A359B9C-4901-4EC1-B44D-544BC566DD5E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_18_1" connectionId="10" xr16:uid="{D73D9D2F-651D-4C30-81AF-9383C2C48CCA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_11_1" connectionId="3" xr16:uid="{187ECEF7-13EB-4990-B504-8B40B052B315}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_9_1" connectionId="27" xr16:uid="{8B548B74-D3A8-44CF-B906-496637E50EF2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_8_1" connectionId="26" xr16:uid="{25B9B3AD-9F51-49A7-BB24-4E8F0BB43E00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1266,31 +1266,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_3_1" connectionId="13" xr16:uid="{C7167BCF-C600-4F44-A73B-4A1E83F0BBE7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_21_1" connectionId="14" xr16:uid="{C7F59135-D7B0-4AC5-8286-DA81DAD579EB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_26_1" connectionId="19" xr16:uid="{EF1920F8-FDD3-426D-BF31-7DB19B02838F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_23_1" connectionId="16" xr16:uid="{BF7D7121-3ACC-45BE-9495-72FB4916FB0F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_8_1" connectionId="26" xr16:uid="{25B9B3AD-9F51-49A7-BB24-4E8F0BB43E00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_24_1" connectionId="17" xr16:uid="{D88CB69D-6CBD-457D-BE12-FEF3680D00EC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_20_1" connectionId="12" xr16:uid="{9F041A5F-FD8D-4475-B0C9-1C4084B4F867}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_28_1" connectionId="21" xr16:uid="{490BCE62-5253-478B-9A18-1799672C474B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_27_1" connectionId="20" xr16:uid="{6D970A84-5F46-4F93-AC10-43D2DC4A7EA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_13_1" connectionId="5" xr16:uid="{DBACD630-8A17-403E-97D1-BA6DA8DC7285}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_19_1" connectionId="11" xr16:uid="{7FDD5CA0-1D40-40E0-BA9B-D83064314396}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_22_1" connectionId="15" xr16:uid="{F4251F43-86F7-4A66-A6BF-C8BAC7402CCA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WData3D_All_2_1" connectionId="2" xr16:uid="{C25A976D-4714-46E1-9F3C-CEF1C8AA4C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1590,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2F52-98FC-4075-B750-B6E04B327DEC}">
-  <dimension ref="A1:M3282"/>
+  <dimension ref="A1:M3288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3237" workbookViewId="0">
-      <selection activeCell="I3251" sqref="I3251"/>
+    <sheetView tabSelected="1" topLeftCell="A3265" workbookViewId="0">
+      <selection activeCell="K3288" sqref="K3288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.21875" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -77096,6 +77096,144 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3283" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3283" s="4">
+        <v>5</v>
+      </c>
+      <c r="B3283" s="4">
+        <v>13</v>
+      </c>
+      <c r="C3283" s="4">
+        <v>19</v>
+      </c>
+      <c r="D3283" s="4">
+        <v>32</v>
+      </c>
+      <c r="E3283" s="4">
+        <v>11</v>
+      </c>
+      <c r="F3283" s="4">
+        <v>16</v>
+      </c>
+      <c r="G3283" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3284" s="4">
+        <v>31</v>
+      </c>
+      <c r="B3284" s="4">
+        <v>20</v>
+      </c>
+      <c r="C3284" s="4">
+        <v>21</v>
+      </c>
+      <c r="D3284" s="4">
+        <v>11</v>
+      </c>
+      <c r="E3284" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3284" s="4">
+        <v>6</v>
+      </c>
+      <c r="G3284" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3285" s="4">
+        <v>26</v>
+      </c>
+      <c r="B3285" s="4">
+        <v>20</v>
+      </c>
+      <c r="C3285" s="4">
+        <v>6</v>
+      </c>
+      <c r="D3285" s="4">
+        <v>33</v>
+      </c>
+      <c r="E3285" s="4">
+        <v>23</v>
+      </c>
+      <c r="F3285" s="4">
+        <v>19</v>
+      </c>
+      <c r="G3285" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3286" s="4">
+        <v>10</v>
+      </c>
+      <c r="B3286" s="4">
+        <v>17</v>
+      </c>
+      <c r="C3286" s="4">
+        <v>8</v>
+      </c>
+      <c r="D3286" s="4">
+        <v>12</v>
+      </c>
+      <c r="E3286" s="4">
+        <v>23</v>
+      </c>
+      <c r="F3286" s="4">
+        <v>15</v>
+      </c>
+      <c r="G3286" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3287" s="4">
+        <v>10</v>
+      </c>
+      <c r="B3287" s="4">
+        <v>24</v>
+      </c>
+      <c r="C3287" s="4">
+        <v>9</v>
+      </c>
+      <c r="D3287" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3287" s="4">
+        <v>6</v>
+      </c>
+      <c r="F3287" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3287" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3288" s="4">
+        <v>6</v>
+      </c>
+      <c r="B3288" s="4">
+        <v>31</v>
+      </c>
+      <c r="C3288" s="4">
+        <v>25</v>
+      </c>
+      <c r="D3288" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3288" s="4">
+        <v>19</v>
+      </c>
+      <c r="F3288" s="4">
+        <v>17</v>
+      </c>
+      <c r="G3288" s="4">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/双色球.xlsx
+++ b/双色球.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E427F6-1DEF-412C-AC3C-ABD44C65CBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB30E6D-AE59-49C5-8584-FD1122F3DEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29550" yWindow="-4150" windowWidth="28800" windowHeight="15350" xr2:uid="{3FEE911D-8D18-4875-AB73-497C05330FED}"/>
+    <workbookView xWindow="8940" yWindow="3780" windowWidth="28800" windowHeight="15345" xr2:uid="{865021E2-96A5-4AD2-95CC-46DC42E206DE}"/>
   </bookViews>
   <sheets>
     <sheet name="双色球" sheetId="1" r:id="rId1"/>
@@ -397,8 +397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34325A23-E409-4705-9BF0-D5A373F1E74A}">
-  <dimension ref="A1:G3296"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7171EA6B-8F55-4317-B6B8-8B4D51A844D2}">
+  <dimension ref="A1:G3299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -76212,6 +76212,75 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3297">
+        <v>15</v>
+      </c>
+      <c r="B3297">
+        <v>33</v>
+      </c>
+      <c r="C3297">
+        <v>22</v>
+      </c>
+      <c r="D3297">
+        <v>18</v>
+      </c>
+      <c r="E3297">
+        <v>9</v>
+      </c>
+      <c r="F3297">
+        <v>12</v>
+      </c>
+      <c r="G3297">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3298">
+        <v>22</v>
+      </c>
+      <c r="B3298">
+        <v>2</v>
+      </c>
+      <c r="C3298">
+        <v>4</v>
+      </c>
+      <c r="D3298">
+        <v>17</v>
+      </c>
+      <c r="E3298">
+        <v>3</v>
+      </c>
+      <c r="F3298">
+        <v>1</v>
+      </c>
+      <c r="G3298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3299">
+        <v>26</v>
+      </c>
+      <c r="B3299">
+        <v>7</v>
+      </c>
+      <c r="C3299">
+        <v>6</v>
+      </c>
+      <c r="D3299">
+        <v>10</v>
+      </c>
+      <c r="E3299">
+        <v>17</v>
+      </c>
+      <c r="F3299">
+        <v>20</v>
+      </c>
+      <c r="G3299">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/双色球.xlsx
+++ b/双色球.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB30E6D-AE59-49C5-8584-FD1122F3DEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38FB9B22-C9D4-4C04-B915-00C534AC2AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="3780" windowWidth="28800" windowHeight="15345" xr2:uid="{865021E2-96A5-4AD2-95CC-46DC42E206DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5D1183A0-A1E5-4E5D-B69F-3EFCEADAD86F}"/>
   </bookViews>
   <sheets>
     <sheet name="双色球" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7171EA6B-8F55-4317-B6B8-8B4D51A844D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E93EEF3-00D8-4F28-B3A8-620FE72D821B}">
   <dimension ref="A1:G3299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/双色球.xlsx
+++ b/双色球.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38FB9B22-C9D4-4C04-B915-00C534AC2AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B21312E-0193-476C-93BA-23550A01A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5D1183A0-A1E5-4E5D-B69F-3EFCEADAD86F}"/>
+    <workbookView xWindow="5190" yWindow="4485" windowWidth="28800" windowHeight="15345" xr2:uid="{DC23D887-30B1-41DC-93A9-9EDFE44C6E00}"/>
   </bookViews>
   <sheets>
     <sheet name="双色球" sheetId="1" r:id="rId1"/>
@@ -397,8 +397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E93EEF3-00D8-4F28-B3A8-620FE72D821B}">
-  <dimension ref="A1:G3299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC6CFD9-5A2F-48CE-8339-90A15D24F7E0}">
+  <dimension ref="A1:G3300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -76281,6 +76281,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3300">
+        <v>6</v>
+      </c>
+      <c r="B3300">
+        <v>33</v>
+      </c>
+      <c r="C3300">
+        <v>30</v>
+      </c>
+      <c r="D3300">
+        <v>10</v>
+      </c>
+      <c r="E3300">
+        <v>9</v>
+      </c>
+      <c r="F3300">
+        <v>13</v>
+      </c>
+      <c r="G3300">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/双色球.xlsx
+++ b/双色球.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B21312E-0193-476C-93BA-23550A01A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17E6ACA0-7468-4A8F-8528-5EECB931DFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="4485" windowWidth="28800" windowHeight="15345" xr2:uid="{DC23D887-30B1-41DC-93A9-9EDFE44C6E00}"/>
+    <workbookView xWindow="4845" yWindow="4140" windowWidth="28800" windowHeight="15345" xr2:uid="{9D1F9B4C-AE48-4502-83B8-BD6AB21415E9}"/>
   </bookViews>
   <sheets>
     <sheet name="双色球" sheetId="1" r:id="rId1"/>
@@ -397,8 +397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC6CFD9-5A2F-48CE-8339-90A15D24F7E0}">
-  <dimension ref="A1:G3300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B041E3-15E5-483F-8C58-FB7982AC2F17}">
+  <dimension ref="A1:G3302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -76304,6 +76304,52 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3301">
+        <v>7</v>
+      </c>
+      <c r="B3301">
+        <v>24</v>
+      </c>
+      <c r="C3301">
+        <v>27</v>
+      </c>
+      <c r="D3301">
+        <v>21</v>
+      </c>
+      <c r="E3301">
+        <v>10</v>
+      </c>
+      <c r="F3301">
+        <v>5</v>
+      </c>
+      <c r="G3301">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3302">
+        <v>22</v>
+      </c>
+      <c r="B3302">
+        <v>33</v>
+      </c>
+      <c r="C3302">
+        <v>5</v>
+      </c>
+      <c r="D3302">
+        <v>27</v>
+      </c>
+      <c r="E3302">
+        <v>29</v>
+      </c>
+      <c r="F3302">
+        <v>2</v>
+      </c>
+      <c r="G3302">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/双色球.xlsx
+++ b/双色球.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17E6ACA0-7468-4A8F-8528-5EECB931DFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C1C4106-4938-4A32-B940-AE818DB1ABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="4140" windowWidth="28800" windowHeight="15345" xr2:uid="{9D1F9B4C-AE48-4502-83B8-BD6AB21415E9}"/>
+    <workbookView xWindow="4845" yWindow="4140" windowWidth="28800" windowHeight="15345" xr2:uid="{37B53E84-3D12-469C-AC92-C815B6641F05}"/>
   </bookViews>
   <sheets>
     <sheet name="双色球" sheetId="1" r:id="rId1"/>
@@ -397,8 +397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B041E3-15E5-483F-8C58-FB7982AC2F17}">
-  <dimension ref="A1:G3302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FDB4DA-742F-4E31-820F-8CD1BFDB1562}">
+  <dimension ref="A1:G3303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -76350,6 +76350,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3303">
+        <v>28</v>
+      </c>
+      <c r="B3303">
+        <v>14</v>
+      </c>
+      <c r="C3303">
+        <v>2</v>
+      </c>
+      <c r="D3303">
+        <v>31</v>
+      </c>
+      <c r="E3303">
+        <v>1</v>
+      </c>
+      <c r="F3303">
+        <v>10</v>
+      </c>
+      <c r="G3303">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/双色球.xlsx
+++ b/双色球.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C1C4106-4938-4A32-B940-AE818DB1ABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DD63D6C-D0BC-4D4B-8648-71A035C2D099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="4140" windowWidth="28800" windowHeight="15345" xr2:uid="{37B53E84-3D12-469C-AC92-C815B6641F05}"/>
+    <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="14145" xr2:uid="{7F76CA4D-908F-47B0-8DDE-D4CE66454718}"/>
   </bookViews>
   <sheets>
     <sheet name="双色球" sheetId="1" r:id="rId1"/>
@@ -397,8 +397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FDB4DA-742F-4E31-820F-8CD1BFDB1562}">
-  <dimension ref="A1:G3303"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738CF96B-9D59-41F6-BF78-6A61C6E0F557}">
+  <dimension ref="A1:G3306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -76373,6 +76373,75 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3304">
+        <v>30</v>
+      </c>
+      <c r="B3304">
+        <v>25</v>
+      </c>
+      <c r="C3304">
+        <v>16</v>
+      </c>
+      <c r="D3304">
+        <v>9</v>
+      </c>
+      <c r="E3304">
+        <v>15</v>
+      </c>
+      <c r="F3304">
+        <v>4</v>
+      </c>
+      <c r="G3304">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3305">
+        <v>7</v>
+      </c>
+      <c r="B3305">
+        <v>9</v>
+      </c>
+      <c r="C3305">
+        <v>2</v>
+      </c>
+      <c r="D3305">
+        <v>6</v>
+      </c>
+      <c r="E3305">
+        <v>20</v>
+      </c>
+      <c r="F3305">
+        <v>10</v>
+      </c>
+      <c r="G3305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3306">
+        <v>11</v>
+      </c>
+      <c r="B3306">
+        <v>24</v>
+      </c>
+      <c r="C3306">
+        <v>12</v>
+      </c>
+      <c r="D3306">
+        <v>13</v>
+      </c>
+      <c r="E3306">
+        <v>10</v>
+      </c>
+      <c r="F3306">
+        <v>4</v>
+      </c>
+      <c r="G3306">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/双色球.xlsx
+++ b/双色球.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DD63D6C-D0BC-4D4B-8648-71A035C2D099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F5FF13-65C3-41E5-9126-429C9BCC7A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="14145" xr2:uid="{7F76CA4D-908F-47B0-8DDE-D4CE66454718}"/>
+    <workbookView xWindow="2205" yWindow="4335" windowWidth="28800" windowHeight="15345" xr2:uid="{46AC12F1-592B-47B1-9A01-A896A8872431}"/>
   </bookViews>
   <sheets>
     <sheet name="双色球" sheetId="1" r:id="rId1"/>
@@ -397,8 +397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738CF96B-9D59-41F6-BF78-6A61C6E0F557}">
-  <dimension ref="A1:G3306"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0420E5C5-0D38-4450-BC61-471DDF86A04F}">
+  <dimension ref="A1:G3311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -76442,6 +76442,121 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3307">
+        <v>25</v>
+      </c>
+      <c r="B3307">
+        <v>6</v>
+      </c>
+      <c r="C3307">
+        <v>28</v>
+      </c>
+      <c r="D3307">
+        <v>30</v>
+      </c>
+      <c r="E3307">
+        <v>14</v>
+      </c>
+      <c r="F3307">
+        <v>18</v>
+      </c>
+      <c r="G3307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3308">
+        <v>10</v>
+      </c>
+      <c r="B3308">
+        <v>32</v>
+      </c>
+      <c r="C3308">
+        <v>9</v>
+      </c>
+      <c r="D3308">
+        <v>7</v>
+      </c>
+      <c r="E3308">
+        <v>11</v>
+      </c>
+      <c r="F3308">
+        <v>6</v>
+      </c>
+      <c r="G3308">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3309">
+        <v>8</v>
+      </c>
+      <c r="B3309">
+        <v>25</v>
+      </c>
+      <c r="C3309">
+        <v>9</v>
+      </c>
+      <c r="D3309">
+        <v>31</v>
+      </c>
+      <c r="E3309">
+        <v>13</v>
+      </c>
+      <c r="F3309">
+        <v>6</v>
+      </c>
+      <c r="G3309">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3310">
+        <v>2</v>
+      </c>
+      <c r="B3310">
+        <v>21</v>
+      </c>
+      <c r="C3310">
+        <v>28</v>
+      </c>
+      <c r="D3310">
+        <v>30</v>
+      </c>
+      <c r="E3310">
+        <v>19</v>
+      </c>
+      <c r="F3310">
+        <v>22</v>
+      </c>
+      <c r="G3310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3311">
+        <v>22</v>
+      </c>
+      <c r="B3311">
+        <v>33</v>
+      </c>
+      <c r="C3311">
+        <v>29</v>
+      </c>
+      <c r="D3311">
+        <v>2</v>
+      </c>
+      <c r="E3311">
+        <v>10</v>
+      </c>
+      <c r="F3311">
+        <v>13</v>
+      </c>
+      <c r="G3311">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/双色球.xlsx
+++ b/双色球.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F5FF13-65C3-41E5-9126-429C9BCC7A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC1F34F-90CE-40F9-8037-65353B54876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="4335" windowWidth="28800" windowHeight="15345" xr2:uid="{46AC12F1-592B-47B1-9A01-A896A8872431}"/>
+    <workbookView xWindow="5625" yWindow="3525" windowWidth="28800" windowHeight="15345" xr2:uid="{CEB7EEB3-C4E8-4A40-9415-E77C1CFE0743}"/>
   </bookViews>
   <sheets>
     <sheet name="双色球" sheetId="1" r:id="rId1"/>
@@ -397,8 +397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0420E5C5-0D38-4450-BC61-471DDF86A04F}">
-  <dimension ref="A1:G3311"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E043B7-64E7-404F-B795-74B593A37364}">
+  <dimension ref="A1:G3321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -76557,6 +76557,236 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3312">
+        <v>6</v>
+      </c>
+      <c r="B3312">
+        <v>20</v>
+      </c>
+      <c r="C3312">
+        <v>14</v>
+      </c>
+      <c r="D3312">
+        <v>13</v>
+      </c>
+      <c r="E3312">
+        <v>15</v>
+      </c>
+      <c r="F3312">
+        <v>10</v>
+      </c>
+      <c r="G3312">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3313">
+        <v>6</v>
+      </c>
+      <c r="B3313">
+        <v>27</v>
+      </c>
+      <c r="C3313">
+        <v>24</v>
+      </c>
+      <c r="D3313">
+        <v>30</v>
+      </c>
+      <c r="E3313">
+        <v>28</v>
+      </c>
+      <c r="F3313">
+        <v>22</v>
+      </c>
+      <c r="G3313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3314">
+        <v>17</v>
+      </c>
+      <c r="B3314">
+        <v>10</v>
+      </c>
+      <c r="C3314">
+        <v>5</v>
+      </c>
+      <c r="D3314">
+        <v>22</v>
+      </c>
+      <c r="E3314">
+        <v>20</v>
+      </c>
+      <c r="F3314">
+        <v>1</v>
+      </c>
+      <c r="G3314">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3315">
+        <v>7</v>
+      </c>
+      <c r="B3315">
+        <v>8</v>
+      </c>
+      <c r="C3315">
+        <v>19</v>
+      </c>
+      <c r="D3315">
+        <v>31</v>
+      </c>
+      <c r="E3315">
+        <v>20</v>
+      </c>
+      <c r="F3315">
+        <v>5</v>
+      </c>
+      <c r="G3315">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3316">
+        <v>4</v>
+      </c>
+      <c r="B3316">
+        <v>27</v>
+      </c>
+      <c r="C3316">
+        <v>30</v>
+      </c>
+      <c r="D3316">
+        <v>23</v>
+      </c>
+      <c r="E3316">
+        <v>19</v>
+      </c>
+      <c r="F3316">
+        <v>2</v>
+      </c>
+      <c r="G3316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3317">
+        <v>2</v>
+      </c>
+      <c r="B3317">
+        <v>33</v>
+      </c>
+      <c r="C3317">
+        <v>22</v>
+      </c>
+      <c r="D3317">
+        <v>21</v>
+      </c>
+      <c r="E3317">
+        <v>3</v>
+      </c>
+      <c r="F3317">
+        <v>15</v>
+      </c>
+      <c r="G3317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3318">
+        <v>12</v>
+      </c>
+      <c r="B3318">
+        <v>18</v>
+      </c>
+      <c r="C3318">
+        <v>28</v>
+      </c>
+      <c r="D3318">
+        <v>23</v>
+      </c>
+      <c r="E3318">
+        <v>1</v>
+      </c>
+      <c r="F3318">
+        <v>25</v>
+      </c>
+      <c r="G3318">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3319">
+        <v>27</v>
+      </c>
+      <c r="B3319">
+        <v>17</v>
+      </c>
+      <c r="C3319">
+        <v>2</v>
+      </c>
+      <c r="D3319">
+        <v>29</v>
+      </c>
+      <c r="E3319">
+        <v>25</v>
+      </c>
+      <c r="F3319">
+        <v>14</v>
+      </c>
+      <c r="G3319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3320">
+        <v>2</v>
+      </c>
+      <c r="B3320">
+        <v>7</v>
+      </c>
+      <c r="C3320">
+        <v>30</v>
+      </c>
+      <c r="D3320">
+        <v>33</v>
+      </c>
+      <c r="E3320">
+        <v>27</v>
+      </c>
+      <c r="F3320">
+        <v>10</v>
+      </c>
+      <c r="G3320">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3321">
+        <v>33</v>
+      </c>
+      <c r="B3321">
+        <v>12</v>
+      </c>
+      <c r="C3321">
+        <v>32</v>
+      </c>
+      <c r="D3321">
+        <v>20</v>
+      </c>
+      <c r="E3321">
+        <v>4</v>
+      </c>
+      <c r="F3321">
+        <v>3</v>
+      </c>
+      <c r="G3321">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/双色球.xlsx
+++ b/双色球.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC1F34F-90CE-40F9-8037-65353B54876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E7C186-DCAE-4379-89FD-FE8D08D526FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="3525" windowWidth="28800" windowHeight="15345" xr2:uid="{CEB7EEB3-C4E8-4A40-9415-E77C1CFE0743}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AEDECE16-E9F7-4FDF-A184-466D1DA105F3}"/>
   </bookViews>
   <sheets>
     <sheet name="双色球" sheetId="1" r:id="rId1"/>
@@ -397,8 +397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E043B7-64E7-404F-B795-74B593A37364}">
-  <dimension ref="A1:G3321"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976B0167-1548-4002-A787-DACCB3F72F08}">
+  <dimension ref="A1:G3386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -76787,6 +76787,1501 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3322">
+        <v>12</v>
+      </c>
+      <c r="B3322">
+        <v>14</v>
+      </c>
+      <c r="C3322">
+        <v>19</v>
+      </c>
+      <c r="D3322">
+        <v>10</v>
+      </c>
+      <c r="E3322">
+        <v>21</v>
+      </c>
+      <c r="F3322">
+        <v>20</v>
+      </c>
+      <c r="G3322">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3323">
+        <v>12</v>
+      </c>
+      <c r="B3323">
+        <v>6</v>
+      </c>
+      <c r="C3323">
+        <v>9</v>
+      </c>
+      <c r="D3323">
+        <v>30</v>
+      </c>
+      <c r="E3323">
+        <v>2</v>
+      </c>
+      <c r="F3323">
+        <v>14</v>
+      </c>
+      <c r="G3323">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3324">
+        <v>7</v>
+      </c>
+      <c r="B3324">
+        <v>21</v>
+      </c>
+      <c r="C3324">
+        <v>15</v>
+      </c>
+      <c r="D3324">
+        <v>4</v>
+      </c>
+      <c r="E3324">
+        <v>20</v>
+      </c>
+      <c r="F3324">
+        <v>8</v>
+      </c>
+      <c r="G3324">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3325">
+        <v>17</v>
+      </c>
+      <c r="B3325">
+        <v>15</v>
+      </c>
+      <c r="C3325">
+        <v>30</v>
+      </c>
+      <c r="D3325">
+        <v>6</v>
+      </c>
+      <c r="E3325">
+        <v>32</v>
+      </c>
+      <c r="F3325">
+        <v>33</v>
+      </c>
+      <c r="G3325">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3326">
+        <v>11</v>
+      </c>
+      <c r="B3326">
+        <v>15</v>
+      </c>
+      <c r="C3326">
+        <v>8</v>
+      </c>
+      <c r="D3326">
+        <v>30</v>
+      </c>
+      <c r="E3326">
+        <v>32</v>
+      </c>
+      <c r="F3326">
+        <v>14</v>
+      </c>
+      <c r="G3326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3327">
+        <v>3</v>
+      </c>
+      <c r="B3327">
+        <v>7</v>
+      </c>
+      <c r="C3327">
+        <v>8</v>
+      </c>
+      <c r="D3327">
+        <v>10</v>
+      </c>
+      <c r="E3327">
+        <v>16</v>
+      </c>
+      <c r="F3327">
+        <v>19</v>
+      </c>
+      <c r="G3327">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3328">
+        <v>6</v>
+      </c>
+      <c r="B3328">
+        <v>28</v>
+      </c>
+      <c r="C3328">
+        <v>20</v>
+      </c>
+      <c r="D3328">
+        <v>18</v>
+      </c>
+      <c r="E3328">
+        <v>23</v>
+      </c>
+      <c r="F3328">
+        <v>3</v>
+      </c>
+      <c r="G3328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3329">
+        <v>4</v>
+      </c>
+      <c r="B3329">
+        <v>14</v>
+      </c>
+      <c r="C3329">
+        <v>9</v>
+      </c>
+      <c r="D3329">
+        <v>32</v>
+      </c>
+      <c r="E3329">
+        <v>6</v>
+      </c>
+      <c r="F3329">
+        <v>33</v>
+      </c>
+      <c r="G3329">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3330">
+        <v>15</v>
+      </c>
+      <c r="B3330">
+        <v>10</v>
+      </c>
+      <c r="C3330">
+        <v>29</v>
+      </c>
+      <c r="D3330">
+        <v>16</v>
+      </c>
+      <c r="E3330">
+        <v>27</v>
+      </c>
+      <c r="F3330">
+        <v>17</v>
+      </c>
+      <c r="G3330">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3331">
+        <v>33</v>
+      </c>
+      <c r="B3331">
+        <v>6</v>
+      </c>
+      <c r="C3331">
+        <v>14</v>
+      </c>
+      <c r="D3331">
+        <v>10</v>
+      </c>
+      <c r="E3331">
+        <v>8</v>
+      </c>
+      <c r="F3331">
+        <v>24</v>
+      </c>
+      <c r="G3331">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3332">
+        <v>18</v>
+      </c>
+      <c r="B3332">
+        <v>14</v>
+      </c>
+      <c r="C3332">
+        <v>15</v>
+      </c>
+      <c r="D3332">
+        <v>21</v>
+      </c>
+      <c r="E3332">
+        <v>11</v>
+      </c>
+      <c r="F3332">
+        <v>24</v>
+      </c>
+      <c r="G3332">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3333">
+        <v>2</v>
+      </c>
+      <c r="B3333">
+        <v>24</v>
+      </c>
+      <c r="C3333">
+        <v>6</v>
+      </c>
+      <c r="D3333">
+        <v>10</v>
+      </c>
+      <c r="E3333">
+        <v>8</v>
+      </c>
+      <c r="F3333">
+        <v>17</v>
+      </c>
+      <c r="G3333">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3334">
+        <v>15</v>
+      </c>
+      <c r="B3334">
+        <v>14</v>
+      </c>
+      <c r="C3334">
+        <v>26</v>
+      </c>
+      <c r="D3334">
+        <v>2</v>
+      </c>
+      <c r="E3334">
+        <v>24</v>
+      </c>
+      <c r="F3334">
+        <v>6</v>
+      </c>
+      <c r="G3334">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3335">
+        <v>25</v>
+      </c>
+      <c r="B3335">
+        <v>21</v>
+      </c>
+      <c r="C3335">
+        <v>1</v>
+      </c>
+      <c r="D3335">
+        <v>3</v>
+      </c>
+      <c r="E3335">
+        <v>13</v>
+      </c>
+      <c r="F3335">
+        <v>18</v>
+      </c>
+      <c r="G3335">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3336">
+        <v>33</v>
+      </c>
+      <c r="B3336">
+        <v>31</v>
+      </c>
+      <c r="C3336">
+        <v>18</v>
+      </c>
+      <c r="D3336">
+        <v>6</v>
+      </c>
+      <c r="E3336">
+        <v>4</v>
+      </c>
+      <c r="F3336">
+        <v>8</v>
+      </c>
+      <c r="G3336">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3337">
+        <v>6</v>
+      </c>
+      <c r="B3337">
+        <v>21</v>
+      </c>
+      <c r="C3337">
+        <v>11</v>
+      </c>
+      <c r="D3337">
+        <v>12</v>
+      </c>
+      <c r="E3337">
+        <v>27</v>
+      </c>
+      <c r="F3337">
+        <v>28</v>
+      </c>
+      <c r="G3337">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3338">
+        <v>27</v>
+      </c>
+      <c r="B3338">
+        <v>3</v>
+      </c>
+      <c r="C3338">
+        <v>25</v>
+      </c>
+      <c r="D3338">
+        <v>17</v>
+      </c>
+      <c r="E3338">
+        <v>4</v>
+      </c>
+      <c r="F3338">
+        <v>19</v>
+      </c>
+      <c r="G3338">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3339">
+        <v>23</v>
+      </c>
+      <c r="B3339">
+        <v>11</v>
+      </c>
+      <c r="C3339">
+        <v>24</v>
+      </c>
+      <c r="D3339">
+        <v>2</v>
+      </c>
+      <c r="E3339">
+        <v>17</v>
+      </c>
+      <c r="F3339">
+        <v>14</v>
+      </c>
+      <c r="G3339">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3340">
+        <v>24</v>
+      </c>
+      <c r="B3340">
+        <v>25</v>
+      </c>
+      <c r="C3340">
+        <v>12</v>
+      </c>
+      <c r="D3340">
+        <v>26</v>
+      </c>
+      <c r="E3340">
+        <v>11</v>
+      </c>
+      <c r="F3340">
+        <v>9</v>
+      </c>
+      <c r="G3340">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3341">
+        <v>11</v>
+      </c>
+      <c r="B3341">
+        <v>13</v>
+      </c>
+      <c r="C3341">
+        <v>19</v>
+      </c>
+      <c r="D3341">
+        <v>29</v>
+      </c>
+      <c r="E3341">
+        <v>23</v>
+      </c>
+      <c r="F3341">
+        <v>17</v>
+      </c>
+      <c r="G3341">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3342">
+        <v>23</v>
+      </c>
+      <c r="B3342">
+        <v>16</v>
+      </c>
+      <c r="C3342">
+        <v>15</v>
+      </c>
+      <c r="D3342">
+        <v>32</v>
+      </c>
+      <c r="E3342">
+        <v>26</v>
+      </c>
+      <c r="F3342">
+        <v>22</v>
+      </c>
+      <c r="G3342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3343">
+        <v>16</v>
+      </c>
+      <c r="B3343">
+        <v>29</v>
+      </c>
+      <c r="C3343">
+        <v>9</v>
+      </c>
+      <c r="D3343">
+        <v>12</v>
+      </c>
+      <c r="E3343">
+        <v>11</v>
+      </c>
+      <c r="F3343">
+        <v>7</v>
+      </c>
+      <c r="G3343">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3344">
+        <v>26</v>
+      </c>
+      <c r="B3344">
+        <v>31</v>
+      </c>
+      <c r="C3344">
+        <v>3</v>
+      </c>
+      <c r="D3344">
+        <v>16</v>
+      </c>
+      <c r="E3344">
+        <v>5</v>
+      </c>
+      <c r="F3344">
+        <v>23</v>
+      </c>
+      <c r="G3344">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3345">
+        <v>13</v>
+      </c>
+      <c r="B3345">
+        <v>17</v>
+      </c>
+      <c r="C3345">
+        <v>29</v>
+      </c>
+      <c r="D3345">
+        <v>5</v>
+      </c>
+      <c r="E3345">
+        <v>18</v>
+      </c>
+      <c r="F3345">
+        <v>8</v>
+      </c>
+      <c r="G3345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3346">
+        <v>15</v>
+      </c>
+      <c r="B3346">
+        <v>17</v>
+      </c>
+      <c r="C3346">
+        <v>9</v>
+      </c>
+      <c r="D3346">
+        <v>11</v>
+      </c>
+      <c r="E3346">
+        <v>22</v>
+      </c>
+      <c r="F3346">
+        <v>26</v>
+      </c>
+      <c r="G3346">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3347">
+        <v>17</v>
+      </c>
+      <c r="B3347">
+        <v>16</v>
+      </c>
+      <c r="C3347">
+        <v>25</v>
+      </c>
+      <c r="D3347">
+        <v>30</v>
+      </c>
+      <c r="E3347">
+        <v>12</v>
+      </c>
+      <c r="F3347">
+        <v>31</v>
+      </c>
+      <c r="G3347">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3348">
+        <v>10</v>
+      </c>
+      <c r="B3348">
+        <v>21</v>
+      </c>
+      <c r="C3348">
+        <v>8</v>
+      </c>
+      <c r="D3348">
+        <v>9</v>
+      </c>
+      <c r="E3348">
+        <v>16</v>
+      </c>
+      <c r="F3348">
+        <v>5</v>
+      </c>
+      <c r="G3348">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3349">
+        <v>16</v>
+      </c>
+      <c r="B3349">
+        <v>9</v>
+      </c>
+      <c r="C3349">
+        <v>17</v>
+      </c>
+      <c r="D3349">
+        <v>4</v>
+      </c>
+      <c r="E3349">
+        <v>31</v>
+      </c>
+      <c r="F3349">
+        <v>18</v>
+      </c>
+      <c r="G3349">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3350">
+        <v>28</v>
+      </c>
+      <c r="B3350">
+        <v>25</v>
+      </c>
+      <c r="C3350">
+        <v>21</v>
+      </c>
+      <c r="D3350">
+        <v>13</v>
+      </c>
+      <c r="E3350">
+        <v>16</v>
+      </c>
+      <c r="F3350">
+        <v>31</v>
+      </c>
+      <c r="G3350">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3351">
+        <v>2</v>
+      </c>
+      <c r="B3351">
+        <v>15</v>
+      </c>
+      <c r="C3351">
+        <v>16</v>
+      </c>
+      <c r="D3351">
+        <v>5</v>
+      </c>
+      <c r="E3351">
+        <v>32</v>
+      </c>
+      <c r="F3351">
+        <v>24</v>
+      </c>
+      <c r="G3351">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3352">
+        <v>26</v>
+      </c>
+      <c r="B3352">
+        <v>18</v>
+      </c>
+      <c r="C3352">
+        <v>24</v>
+      </c>
+      <c r="D3352">
+        <v>4</v>
+      </c>
+      <c r="E3352">
+        <v>7</v>
+      </c>
+      <c r="F3352">
+        <v>28</v>
+      </c>
+      <c r="G3352">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3353">
+        <v>22</v>
+      </c>
+      <c r="B3353">
+        <v>5</v>
+      </c>
+      <c r="C3353">
+        <v>26</v>
+      </c>
+      <c r="D3353">
+        <v>17</v>
+      </c>
+      <c r="E3353">
+        <v>4</v>
+      </c>
+      <c r="F3353">
+        <v>30</v>
+      </c>
+      <c r="G3353">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3354">
+        <v>33</v>
+      </c>
+      <c r="B3354">
+        <v>2</v>
+      </c>
+      <c r="C3354">
+        <v>25</v>
+      </c>
+      <c r="D3354">
+        <v>15</v>
+      </c>
+      <c r="E3354">
+        <v>10</v>
+      </c>
+      <c r="F3354">
+        <v>3</v>
+      </c>
+      <c r="G3354">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3355">
+        <v>22</v>
+      </c>
+      <c r="B3355">
+        <v>33</v>
+      </c>
+      <c r="C3355">
+        <v>14</v>
+      </c>
+      <c r="D3355">
+        <v>1</v>
+      </c>
+      <c r="E3355">
+        <v>17</v>
+      </c>
+      <c r="F3355">
+        <v>9</v>
+      </c>
+      <c r="G3355">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3356">
+        <v>31</v>
+      </c>
+      <c r="B3356">
+        <v>18</v>
+      </c>
+      <c r="C3356">
+        <v>6</v>
+      </c>
+      <c r="D3356">
+        <v>5</v>
+      </c>
+      <c r="E3356">
+        <v>17</v>
+      </c>
+      <c r="F3356">
+        <v>9</v>
+      </c>
+      <c r="G3356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3357">
+        <v>14</v>
+      </c>
+      <c r="B3357">
+        <v>1</v>
+      </c>
+      <c r="C3357">
+        <v>16</v>
+      </c>
+      <c r="D3357">
+        <v>11</v>
+      </c>
+      <c r="E3357">
+        <v>5</v>
+      </c>
+      <c r="F3357">
+        <v>19</v>
+      </c>
+      <c r="G3357">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3358">
+        <v>28</v>
+      </c>
+      <c r="B3358">
+        <v>31</v>
+      </c>
+      <c r="C3358">
+        <v>18</v>
+      </c>
+      <c r="D3358">
+        <v>9</v>
+      </c>
+      <c r="E3358">
+        <v>14</v>
+      </c>
+      <c r="F3358">
+        <v>33</v>
+      </c>
+      <c r="G3358">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3359">
+        <v>32</v>
+      </c>
+      <c r="B3359">
+        <v>11</v>
+      </c>
+      <c r="C3359">
+        <v>20</v>
+      </c>
+      <c r="D3359">
+        <v>3</v>
+      </c>
+      <c r="E3359">
+        <v>13</v>
+      </c>
+      <c r="F3359">
+        <v>9</v>
+      </c>
+      <c r="G3359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3360">
+        <v>31</v>
+      </c>
+      <c r="B3360">
+        <v>8</v>
+      </c>
+      <c r="C3360">
+        <v>13</v>
+      </c>
+      <c r="D3360">
+        <v>15</v>
+      </c>
+      <c r="E3360">
+        <v>10</v>
+      </c>
+      <c r="F3360">
+        <v>24</v>
+      </c>
+      <c r="G3360">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3361">
+        <v>26</v>
+      </c>
+      <c r="B3361">
+        <v>27</v>
+      </c>
+      <c r="C3361">
+        <v>21</v>
+      </c>
+      <c r="D3361">
+        <v>1</v>
+      </c>
+      <c r="E3361">
+        <v>25</v>
+      </c>
+      <c r="F3361">
+        <v>20</v>
+      </c>
+      <c r="G3361">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3362">
+        <v>30</v>
+      </c>
+      <c r="B3362">
+        <v>3</v>
+      </c>
+      <c r="C3362">
+        <v>2</v>
+      </c>
+      <c r="D3362">
+        <v>24</v>
+      </c>
+      <c r="E3362">
+        <v>19</v>
+      </c>
+      <c r="F3362">
+        <v>8</v>
+      </c>
+      <c r="G3362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3363">
+        <v>24</v>
+      </c>
+      <c r="B3363">
+        <v>28</v>
+      </c>
+      <c r="C3363">
+        <v>8</v>
+      </c>
+      <c r="D3363">
+        <v>2</v>
+      </c>
+      <c r="E3363">
+        <v>31</v>
+      </c>
+      <c r="F3363">
+        <v>4</v>
+      </c>
+      <c r="G3363">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3364">
+        <v>20</v>
+      </c>
+      <c r="B3364">
+        <v>25</v>
+      </c>
+      <c r="C3364">
+        <v>33</v>
+      </c>
+      <c r="D3364">
+        <v>8</v>
+      </c>
+      <c r="E3364">
+        <v>17</v>
+      </c>
+      <c r="F3364">
+        <v>6</v>
+      </c>
+      <c r="G3364">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3365">
+        <v>1</v>
+      </c>
+      <c r="B3365">
+        <v>10</v>
+      </c>
+      <c r="C3365">
+        <v>11</v>
+      </c>
+      <c r="D3365">
+        <v>16</v>
+      </c>
+      <c r="E3365">
+        <v>26</v>
+      </c>
+      <c r="F3365">
+        <v>24</v>
+      </c>
+      <c r="G3365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3366">
+        <v>6</v>
+      </c>
+      <c r="B3366">
+        <v>26</v>
+      </c>
+      <c r="C3366">
+        <v>23</v>
+      </c>
+      <c r="D3366">
+        <v>32</v>
+      </c>
+      <c r="E3366">
+        <v>28</v>
+      </c>
+      <c r="F3366">
+        <v>9</v>
+      </c>
+      <c r="G3366">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3367">
+        <v>32</v>
+      </c>
+      <c r="B3367">
+        <v>13</v>
+      </c>
+      <c r="C3367">
+        <v>7</v>
+      </c>
+      <c r="D3367">
+        <v>4</v>
+      </c>
+      <c r="E3367">
+        <v>1</v>
+      </c>
+      <c r="F3367">
+        <v>2</v>
+      </c>
+      <c r="G3367">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3368">
+        <v>25</v>
+      </c>
+      <c r="B3368">
+        <v>8</v>
+      </c>
+      <c r="C3368">
+        <v>29</v>
+      </c>
+      <c r="D3368">
+        <v>6</v>
+      </c>
+      <c r="E3368">
+        <v>30</v>
+      </c>
+      <c r="F3368">
+        <v>10</v>
+      </c>
+      <c r="G3368">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3369">
+        <v>20</v>
+      </c>
+      <c r="B3369">
+        <v>19</v>
+      </c>
+      <c r="C3369">
+        <v>25</v>
+      </c>
+      <c r="D3369">
+        <v>16</v>
+      </c>
+      <c r="E3369">
+        <v>31</v>
+      </c>
+      <c r="F3369">
+        <v>18</v>
+      </c>
+      <c r="G3369">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3370">
+        <v>24</v>
+      </c>
+      <c r="B3370">
+        <v>7</v>
+      </c>
+      <c r="C3370">
+        <v>26</v>
+      </c>
+      <c r="D3370">
+        <v>9</v>
+      </c>
+      <c r="E3370">
+        <v>23</v>
+      </c>
+      <c r="F3370">
+        <v>25</v>
+      </c>
+      <c r="G3370">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3371">
+        <v>1</v>
+      </c>
+      <c r="B3371">
+        <v>19</v>
+      </c>
+      <c r="C3371">
+        <v>21</v>
+      </c>
+      <c r="D3371">
+        <v>33</v>
+      </c>
+      <c r="E3371">
+        <v>2</v>
+      </c>
+      <c r="F3371">
+        <v>18</v>
+      </c>
+      <c r="G3371">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3372">
+        <v>3</v>
+      </c>
+      <c r="B3372">
+        <v>13</v>
+      </c>
+      <c r="C3372">
+        <v>32</v>
+      </c>
+      <c r="D3372">
+        <v>26</v>
+      </c>
+      <c r="E3372">
+        <v>9</v>
+      </c>
+      <c r="F3372">
+        <v>12</v>
+      </c>
+      <c r="G3372">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3373">
+        <v>16</v>
+      </c>
+      <c r="B3373">
+        <v>2</v>
+      </c>
+      <c r="C3373">
+        <v>19</v>
+      </c>
+      <c r="D3373">
+        <v>12</v>
+      </c>
+      <c r="E3373">
+        <v>13</v>
+      </c>
+      <c r="F3373">
+        <v>25</v>
+      </c>
+      <c r="G3373">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3374">
+        <v>19</v>
+      </c>
+      <c r="B3374">
+        <v>3</v>
+      </c>
+      <c r="C3374">
+        <v>28</v>
+      </c>
+      <c r="D3374">
+        <v>17</v>
+      </c>
+      <c r="E3374">
+        <v>15</v>
+      </c>
+      <c r="F3374">
+        <v>9</v>
+      </c>
+      <c r="G3374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3375">
+        <v>18</v>
+      </c>
+      <c r="B3375">
+        <v>19</v>
+      </c>
+      <c r="C3375">
+        <v>24</v>
+      </c>
+      <c r="D3375">
+        <v>2</v>
+      </c>
+      <c r="E3375">
+        <v>27</v>
+      </c>
+      <c r="F3375">
+        <v>10</v>
+      </c>
+      <c r="G3375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3376">
+        <v>30</v>
+      </c>
+      <c r="B3376">
+        <v>7</v>
+      </c>
+      <c r="C3376">
+        <v>13</v>
+      </c>
+      <c r="D3376">
+        <v>20</v>
+      </c>
+      <c r="E3376">
+        <v>3</v>
+      </c>
+      <c r="F3376">
+        <v>4</v>
+      </c>
+      <c r="G3376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3377">
+        <v>14</v>
+      </c>
+      <c r="B3377">
+        <v>1</v>
+      </c>
+      <c r="C3377">
+        <v>5</v>
+      </c>
+      <c r="D3377">
+        <v>8</v>
+      </c>
+      <c r="E3377">
+        <v>19</v>
+      </c>
+      <c r="F3377">
+        <v>23</v>
+      </c>
+      <c r="G3377">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3378">
+        <v>24</v>
+      </c>
+      <c r="B3378">
+        <v>3</v>
+      </c>
+      <c r="C3378">
+        <v>18</v>
+      </c>
+      <c r="D3378">
+        <v>14</v>
+      </c>
+      <c r="E3378">
+        <v>13</v>
+      </c>
+      <c r="F3378">
+        <v>31</v>
+      </c>
+      <c r="G3378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3379">
+        <v>4</v>
+      </c>
+      <c r="B3379">
+        <v>21</v>
+      </c>
+      <c r="C3379">
+        <v>10</v>
+      </c>
+      <c r="D3379">
+        <v>8</v>
+      </c>
+      <c r="E3379">
+        <v>23</v>
+      </c>
+      <c r="F3379">
+        <v>32</v>
+      </c>
+      <c r="G3379">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3380">
+        <v>20</v>
+      </c>
+      <c r="B3380">
+        <v>33</v>
+      </c>
+      <c r="C3380">
+        <v>17</v>
+      </c>
+      <c r="D3380">
+        <v>14</v>
+      </c>
+      <c r="E3380">
+        <v>5</v>
+      </c>
+      <c r="F3380">
+        <v>19</v>
+      </c>
+      <c r="G3380">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3381">
+        <v>13</v>
+      </c>
+      <c r="B3381">
+        <v>26</v>
+      </c>
+      <c r="C3381">
+        <v>3</v>
+      </c>
+      <c r="D3381">
+        <v>9</v>
+      </c>
+      <c r="E3381">
+        <v>5</v>
+      </c>
+      <c r="F3381">
+        <v>29</v>
+      </c>
+      <c r="G3381">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3382">
+        <v>5</v>
+      </c>
+      <c r="B3382">
+        <v>32</v>
+      </c>
+      <c r="C3382">
+        <v>1</v>
+      </c>
+      <c r="D3382">
+        <v>9</v>
+      </c>
+      <c r="E3382">
+        <v>2</v>
+      </c>
+      <c r="F3382">
+        <v>25</v>
+      </c>
+      <c r="G3382">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3383">
+        <v>14</v>
+      </c>
+      <c r="B3383">
+        <v>32</v>
+      </c>
+      <c r="C3383">
+        <v>23</v>
+      </c>
+      <c r="D3383">
+        <v>10</v>
+      </c>
+      <c r="E3383">
+        <v>8</v>
+      </c>
+      <c r="F3383">
+        <v>28</v>
+      </c>
+      <c r="G3383">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3384">
+        <v>8</v>
+      </c>
+      <c r="B3384">
+        <v>23</v>
+      </c>
+      <c r="C3384">
+        <v>2</v>
+      </c>
+      <c r="D3384">
+        <v>27</v>
+      </c>
+      <c r="E3384">
+        <v>11</v>
+      </c>
+      <c r="F3384">
+        <v>29</v>
+      </c>
+      <c r="G3384">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3385">
+        <v>27</v>
+      </c>
+      <c r="B3385">
+        <v>24</v>
+      </c>
+      <c r="C3385">
+        <v>10</v>
+      </c>
+      <c r="D3385">
+        <v>23</v>
+      </c>
+      <c r="E3385">
+        <v>13</v>
+      </c>
+      <c r="F3385">
+        <v>14</v>
+      </c>
+      <c r="G3385">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3386">
+        <v>33</v>
+      </c>
+      <c r="B3386">
+        <v>17</v>
+      </c>
+      <c r="C3386">
+        <v>30</v>
+      </c>
+      <c r="D3386">
+        <v>5</v>
+      </c>
+      <c r="E3386">
+        <v>2</v>
+      </c>
+      <c r="F3386">
+        <v>22</v>
+      </c>
+      <c r="G3386">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/双色球.xlsx
+++ b/双色球.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E7C186-DCAE-4379-89FD-FE8D08D526FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF22F65E-5F93-4960-B7FC-CD556EF1CC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AEDECE16-E9F7-4FDF-A184-466D1DA105F3}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15345" xr2:uid="{565EF788-DB95-4644-9BF8-C33A8E1AFDB3}"/>
   </bookViews>
   <sheets>
     <sheet name="双色球" sheetId="1" r:id="rId1"/>
@@ -397,8 +397,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976B0167-1548-4002-A787-DACCB3F72F08}">
-  <dimension ref="A1:G3386"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA78DBA-67E6-4728-A8C0-9A46A06AA844}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G3397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -78282,6 +78283,259 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3387">
+        <v>4</v>
+      </c>
+      <c r="B3387">
+        <v>3</v>
+      </c>
+      <c r="C3387">
+        <v>12</v>
+      </c>
+      <c r="D3387">
+        <v>24</v>
+      </c>
+      <c r="E3387">
+        <v>1</v>
+      </c>
+      <c r="F3387">
+        <v>18</v>
+      </c>
+      <c r="G3387">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3388">
+        <v>12</v>
+      </c>
+      <c r="B3388">
+        <v>4</v>
+      </c>
+      <c r="C3388">
+        <v>10</v>
+      </c>
+      <c r="D3388">
+        <v>13</v>
+      </c>
+      <c r="E3388">
+        <v>5</v>
+      </c>
+      <c r="F3388">
+        <v>2</v>
+      </c>
+      <c r="G3388">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3389">
+        <v>27</v>
+      </c>
+      <c r="B3389">
+        <v>13</v>
+      </c>
+      <c r="C3389">
+        <v>23</v>
+      </c>
+      <c r="D3389">
+        <v>2</v>
+      </c>
+      <c r="E3389">
+        <v>15</v>
+      </c>
+      <c r="F3389">
+        <v>31</v>
+      </c>
+      <c r="G3389">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3390">
+        <v>15</v>
+      </c>
+      <c r="B3390">
+        <v>13</v>
+      </c>
+      <c r="C3390">
+        <v>2</v>
+      </c>
+      <c r="D3390">
+        <v>24</v>
+      </c>
+      <c r="E3390">
+        <v>9</v>
+      </c>
+      <c r="F3390">
+        <v>12</v>
+      </c>
+      <c r="G3390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3391">
+        <v>20</v>
+      </c>
+      <c r="B3391">
+        <v>15</v>
+      </c>
+      <c r="C3391">
+        <v>1</v>
+      </c>
+      <c r="D3391">
+        <v>33</v>
+      </c>
+      <c r="E3391">
+        <v>8</v>
+      </c>
+      <c r="F3391">
+        <v>26</v>
+      </c>
+      <c r="G3391">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3392">
+        <v>12</v>
+      </c>
+      <c r="B3392">
+        <v>11</v>
+      </c>
+      <c r="C3392">
+        <v>15</v>
+      </c>
+      <c r="D3392">
+        <v>25</v>
+      </c>
+      <c r="E3392">
+        <v>32</v>
+      </c>
+      <c r="F3392">
+        <v>18</v>
+      </c>
+      <c r="G3392">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3393">
+        <v>7</v>
+      </c>
+      <c r="B3393">
+        <v>12</v>
+      </c>
+      <c r="C3393">
+        <v>28</v>
+      </c>
+      <c r="D3393">
+        <v>5</v>
+      </c>
+      <c r="E3393">
+        <v>24</v>
+      </c>
+      <c r="F3393">
+        <v>26</v>
+      </c>
+      <c r="G3393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3394">
+        <v>1</v>
+      </c>
+      <c r="B3394">
+        <v>3</v>
+      </c>
+      <c r="C3394">
+        <v>8</v>
+      </c>
+      <c r="D3394">
+        <v>5</v>
+      </c>
+      <c r="E3394">
+        <v>33</v>
+      </c>
+      <c r="F3394">
+        <v>22</v>
+      </c>
+      <c r="G3394">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3395">
+        <v>9</v>
+      </c>
+      <c r="B3395">
+        <v>3</v>
+      </c>
+      <c r="C3395">
+        <v>4</v>
+      </c>
+      <c r="D3395">
+        <v>15</v>
+      </c>
+      <c r="E3395">
+        <v>10</v>
+      </c>
+      <c r="F3395">
+        <v>22</v>
+      </c>
+      <c r="G3395">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3396">
+        <v>1</v>
+      </c>
+      <c r="B3396">
+        <v>6</v>
+      </c>
+      <c r="C3396">
+        <v>30</v>
+      </c>
+      <c r="D3396">
+        <v>4</v>
+      </c>
+      <c r="E3396">
+        <v>22</v>
+      </c>
+      <c r="F3396">
+        <v>2</v>
+      </c>
+      <c r="G3396">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3397">
+        <v>17</v>
+      </c>
+      <c r="B3397">
+        <v>31</v>
+      </c>
+      <c r="C3397">
+        <v>13</v>
+      </c>
+      <c r="D3397">
+        <v>19</v>
+      </c>
+      <c r="E3397">
+        <v>24</v>
+      </c>
+      <c r="F3397">
+        <v>6</v>
+      </c>
+      <c r="G3397">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
